--- a/medicine/Enfance/Jeanne_de_Sobol/Jeanne_de_Sobol.xlsx
+++ b/medicine/Enfance/Jeanne_de_Sobol/Jeanne_de_Sobol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeanne de Sobol, née Jeanne Louise Léonie Lespermont le 19 mars 1855 à Undervelier et morte le 22 janvier 1907 à Paris 16e, est une écrivaine de romans pour la jeunesse et une traductrice française d'origine suisse, ayant écrit sous les pseudonymes de Mme de Sobol, M. de Sobol, Jean de Sobol, J. de Sobol et Jacques Lermont. 
 </t>
@@ -513,14 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Jeanne Louise Léonie Lespermont naît en Suisse, à Undervelier, en 1855, fille de Louis Joseph Amédée Lespermont, ingénieur, et Louise Célestine Bourgeois[1],[2].
-En 1885, elle épouse à Paris Joseph Bronislas Antoine de Sobolewski, né à Kalisz en Pologne (alors sous tutelle russe), commissionnaire en marchandises. À la manière polonaise, elle prend pour nom d'usage la version féminisée du patronyme de son mari, de Sobolewska[3],[Note 1].
-En 1901, son mari, accusé de nombreuses escroqueries en Pologne, est arrêté par le service de la Sûreté, à la demande du gouvernement russe qui souhaite son extradition[4].
-Carrière
-En 1882, elle commence sa carrière littéraire sous le pseudonyme de Jacques Lermont[5],[Note 2] : parfois en duo avec l'éditeur Pierre-Jules Hetzel, — qui prend, lui, le pseudonyme de P.-J. Stahl[6] —, elle traduit et adapte des romans américains, en particulier deux romans de Louisa May Alcott, l'auteure des Quatre Filles du docteur March[7].
-À partir de 1887, elle commence à publier des œuvres originales, certaines signées Jacques Lermont (la plupart chez Hetzel), d'autres Jeanne de Sobol. Dans son Romans à lire et romans à proscrire, sorte d'Index personnel, l'abbé Louis Bethléem dit d'elle « Elle fait éclore de sa plume originale tout un monde de bébés, d'enfants et de jeunes filles » et recommande certains de ses ouvrages[3].
-Elle meurt en 1907, dans son appartement de la rue Debrousse[1]. Sa mort est annoncée dans la presse et ses obsèques sont célébrées à l'église Saint-Pierre-de-Chaillot[8].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanne Louise Léonie Lespermont naît en Suisse, à Undervelier, en 1855, fille de Louis Joseph Amédée Lespermont, ingénieur, et Louise Célestine Bourgeois,.
+En 1885, elle épouse à Paris Joseph Bronislas Antoine de Sobolewski, né à Kalisz en Pologne (alors sous tutelle russe), commissionnaire en marchandises. À la manière polonaise, elle prend pour nom d'usage la version féminisée du patronyme de son mari, de Sobolewska,[Note 1].
+En 1901, son mari, accusé de nombreuses escroqueries en Pologne, est arrêté par le service de la Sûreté, à la demande du gouvernement russe qui souhaite son extradition.
 </t>
         </is>
       </c>
@@ -546,10 +559,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1882, elle commence sa carrière littéraire sous le pseudonyme de Jacques Lermont,[Note 2] : parfois en duo avec l'éditeur Pierre-Jules Hetzel, — qui prend, lui, le pseudonyme de P.-J. Stahl —, elle traduit et adapte des romans américains, en particulier deux romans de Louisa May Alcott, l'auteure des Quatre Filles du docteur March.
+À partir de 1887, elle commence à publier des œuvres originales, certaines signées Jacques Lermont (la plupart chez Hetzel), d'autres Jeanne de Sobol. Dans son Romans à lire et romans à proscrire, sorte d'Index personnel, l'abbé Louis Bethléem dit d'elle « Elle fait éclore de sa plume originale tout un monde de bébés, d'enfants et de jeunes filles » et recommande certains de ses ouvrages.
+Elle meurt en 1907, dans son appartement de la rue Debrousse. Sa mort est annoncée dans la presse et ses obsèques sont célébrées à l'église Saint-Pierre-de-Chaillot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jeanne_de_Sobol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_de_Sobol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Traductions et adaptations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1882 : Thomas Mayne Reid, La Montagne perdue ; traduction de J. Lermont, adaptation par Stahl, Paris, Hetzel
 1883 : Louisa May Alcott, Jack et Jane ; adaptation autorisée par Stahl et Lermont ; dessins de J. Geoffroy, Paris, Hetzel
@@ -559,34 +613,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Jeanne_de_Sobol</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jeanne_de_Sobol</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sous le nom de Jacques Lermont
-1887 : Gypsy, Charavay, Mantoux et Cie
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jacques Lermont</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1887 : Gypsy, Charavay, Mantoux et Cie
 1887 : Les Jeunes Filles de Quinnebasset par J. Lermont, d'après S. May, ill. Paul Destez, Paris, Hetzel, collection « Bibliothèque d'éducation et de récréation »
 1889 : Les Vacances bourguignonnes, Paris, Gedalge
 1889 : Suzan Coolidge, L'Aînée, d'après Suzan Coolidge, Paris, Hetzel
@@ -604,9 +663,43 @@
 1901 : Les Bonnes Idées de Mlle Rose, Les Enfants au ballon élastique, ill. Édouard Detaille, Paris, Hetzel
 1904 : Disparus, Paris, Hetzel
 1906 : Trois Âmes vaillantes, Paris, Hetzel
-1910 : Museau Rara et Cie, ill. Georges Roux, Paris, Hetzel
-Sous le nom de Jeanne de Sobol
-1887 : Bouton d'or, Paris, Éditions Quantin, collection « Bibliothèque de l'éducation maternelle »
+1910 : Museau Rara et Cie, ill. Georges Roux, Paris, Hetzel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jeanne_de_Sobol</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_de_Sobol</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jeanne de Sobol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1887 : Bouton d'or, Paris, Éditions Quantin, collection « Bibliothèque de l'éducation maternelle »
 1888 : Moi et mes poupées, Paris, Éditions Quantin, coll. « Bibliothèque enfantine »
 1891 : Les Vacances de Paul, Paris, Librairies-imprimeries réunies
 1895 : Les Prisonniers de maman, Paris, Librairies-imprimeries réunies, coll. « Bibliothèque enfantine »
